--- a/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(2016-)/食品烟酒类农村居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(2016-)/食品烟酒类农村居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>其他食品类类农村居民消费价格指数(上年=100)</t>
+          <t>其他食品类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,12 +446,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>奶类类农村居民消费价格指数(上年=100)</t>
+          <t>奶类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>干鲜瓜果类类农村居民消费价格指数(上年=100)</t>
+          <t>干鲜瓜果类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>畜肉类类农村居民消费价格指数(上年=100)</t>
+          <t>畜肉类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>禽肉类类农村居民消费价格指数(上年=100)</t>
+          <t>禽肉类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>糖果糕点类类农村居民消费价格指数(上年=100)</t>
+          <t>糖果糕点类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>薯类类农村居民消费价格指数(上年=100)</t>
+          <t>薯类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>蛋类类农村居民消费价格指数(上年=100)</t>
+          <t>蛋类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>豆类类农村居民消费价格指数(上年=100)</t>
+          <t>豆类农村居民消费价格指数(上年=100)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -889,6 +889,106 @@
       <c r="V6" t="n">
         <v>107.2</v>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>111</v>
+      </c>
+      <c r="G7" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>105</v>
+      </c>
+      <c r="N7" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
